--- a/ru/files/Данные погоды.xlsx
+++ b/ru/files/Данные погоды.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Weathe-servic_instruction\ru\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E012223F-F9B3-435E-85B0-EB9B3CDA7CD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AFF5EA-1D36-4516-B344-940D947AC502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3CA705CB-D411-4632-B48B-04D989CA07EA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="113">
   <si>
     <t>Параметр</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Закат луны (AccuWeather)</t>
+  </si>
+  <si>
+    <t>Как температура ощущается</t>
   </si>
 </sst>
 </file>
@@ -513,46 +516,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -593,6 +556,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -610,6 +603,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -624,7 +627,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D733AC58-2C0D-472E-B172-E18AA7EDEB1E}" name="Таблица1" displayName="Таблица1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D733AC58-2C0D-472E-B172-E18AA7EDEB1E}" name="Таблица1" displayName="Таблица1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:D30" xr:uid="{A3B29E14-8569-4FDD-BE24-73E47F955451}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3B0F7C66-AB1C-4F94-853C-3E4C0815CDDC}" name="Параметр"/>
@@ -637,7 +640,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7065F45C-382B-4E23-82DF-724EE231459B}" name="Таблица2" displayName="Таблица2" ref="A1:D32" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7065F45C-382B-4E23-82DF-724EE231459B}" name="Таблица2" displayName="Таблица2" ref="A1:D32" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D32" xr:uid="{8F0472E8-6BBD-4BB7-B470-D22DAE58F46D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{992DCEAD-1507-4A3D-BA64-C7166B9C558B}" name="Параметр"/>
@@ -949,7 +952,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,7 +1352,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1787,13 +1790,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
